--- a/PredLig/src/Documentation/Execution of Astro-ph.xlsx
+++ b/PredLig/src/Documentation/Execution of Astro-ph.xlsx
@@ -1,38 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1994-1999" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="1994-1999 - Results" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="kts0.8" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="kts0.5" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="kts0.2" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="kts0.1" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="kts0.9" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="kts0.7" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="1994-1999" sheetId="1" r:id="rId1"/>
+    <sheet name="Resultados - 1994-1999" sheetId="9" r:id="rId2"/>
+    <sheet name="1994-1999 - Results" sheetId="2" r:id="rId3"/>
+    <sheet name="kts0.8" sheetId="3" r:id="rId4"/>
+    <sheet name="kts0.5" sheetId="4" r:id="rId5"/>
+    <sheet name="kts0.2" sheetId="5" r:id="rId6"/>
+    <sheet name="kts0.1" sheetId="6" r:id="rId7"/>
+    <sheet name="kts0.9" sheetId="7" r:id="rId8"/>
+    <sheet name="kts0.7" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
   <si>
     <t>DataSet</t>
   </si>
   <si>
-    <t>Trainning Period</t>
-  </si>
-  <si>
-    <t>Test Period</t>
-  </si>
-  <si>
     <t>Papers</t>
   </si>
   <si>
@@ -226,20 +223,55 @@
   </si>
   <si>
     <t>Max values found in calculations:  [173.97988165223856]</t>
+  </si>
+  <si>
+    <t>Test Period                                               1994  -  1999</t>
+  </si>
+  <si>
+    <t>Trainning Period                                               1994  -  1996</t>
+  </si>
+  <si>
+    <t>Scores / Database</t>
+  </si>
+  <si>
+    <t>WCN_TS</t>
+  </si>
+  <si>
+    <t>WCN_DJC</t>
+  </si>
+  <si>
+    <t>WAA_TS</t>
+  </si>
+  <si>
+    <t>WAA_DJC</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>COND-MAT</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>DTS</t>
+  </si>
+  <si>
+    <t>DTSv2</t>
+  </si>
+  <si>
+    <t>DJC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -248,17 +280,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -267,14 +288,15 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Monaco"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,101 +307,204 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="8">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -438,14 +563,372 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF4B1F6F"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5030183727034119E-2"/>
+          <c:y val="7.4548702245552642E-2"/>
+          <c:w val="0.83796369203849519"/>
+          <c:h val="0.82798993875765525"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WCN_TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$8,'Resultados - 1994-1999'!$F$8,'Resultados - 1994-1999'!$H$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6680117388114448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WCN_DJC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$9,'Resultados - 1994-1999'!$F$9,'Resultados - 1994-1999'!$H$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.8972853998532653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WAA_TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$10,'Resultados - 1994-1999'!$F$10,'Resultados - 1994-1999'!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.30997798972854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WAA_DJC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$11,'Resultados - 1994-1999'!$F$11,'Resultados - 1994-1999'!$H$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.154071900220103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="530650624"/>
+        <c:axId val="530595840"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="530650624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="530595840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530595840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="530650624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -457,7 +940,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300">
+              <a:rPr lang="pt-BR" sz="1300">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Success Nodes Linked</a:t>
@@ -465,30 +948,35 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="11"/>
       <c:rotY val="25"/>
       <c:rAngAx val="1"/>
-      <c:perspective val="40"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="cccccc"/>
+          <a:srgbClr val="CCCCCC"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
     </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -498,6 +986,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -514,35 +1003,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="729fcf"/>
+              <a:srgbClr val="729FCF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'1994-1999 - Results'!$A$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1994-1999 - Results'!$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>133</c:v>
@@ -550,6 +1040,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -567,29 +1071,30 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffd320"/>
+              <a:srgbClr val="FFD320"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'1994-1999 - Results'!$A$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -603,6 +1108,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -620,29 +1139,30 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="33ff99"/>
+              <a:srgbClr val="33FF99"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'1994-1999 - Results'!$A$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -656,6 +1176,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -679,23 +1213,24 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'1994-1999 - Results'!$A$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -709,6 +1244,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -726,35 +1275,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="aecf00"/>
+              <a:srgbClr val="AECF00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'1994-1999 - Results'!$A$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1994-1999 - Results'!$O$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>125</c:v>
@@ -762,6 +1312,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -779,35 +1343,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4b1f6f"/>
+              <a:srgbClr val="4B1F6F"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'1994-1999 - Results'!$A$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1994-1999 - Results'!$R$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>126</c:v>
@@ -815,6 +1380,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -832,35 +1411,36 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0066cc"/>
+              <a:srgbClr val="0066CC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:dLbls>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'1994-1999 - Results'!$A$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1994-1999 - Results'!$U$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>133</c:v>
@@ -868,38 +1448,62 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="1044895"/>
-        <c:axId val="703679"/>
+        <c:axId val="532640768"/>
+        <c:axId val="530598144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1044895"/>
+        <c:axId val="532640768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="703679"/>
+        <c:crossAx val="530598144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="703679"/>
+        <c:axId val="530598144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,29 +1513,31 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1044895"/>
+        <c:crossAx val="532640768"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -947,41 +1553,48 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>501840</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1803960" y="1237320"/>
-        <a:ext cx="5756040" cy="3239280"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -994,85 +1607,402 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501840</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="18.7109375"/>
+    <col min="3" max="4" width="11.5703125"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875"/>
+    <col min="9" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="2:8" ht="22.7" customHeight="1">
+      <c r="B4" s="14"/>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:8" ht="19.7" customHeight="1">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="19.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>5820</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>7198</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>1722811</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="2">
+        <v>25878316</v>
+      </c>
+      <c r="F5" s="2">
         <v>21290</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="2">
         <v>20428</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>2225</v>
+      <c r="H5" s="2">
+        <v>10904</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +2011,9 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1092,229 +2021,652 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:9">
+      <c r="C6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="19"/>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="13">
+        <f>(E8/'1994-1999'!H5)*100</f>
+        <v>4.6680117388114448</v>
+      </c>
+      <c r="E8" s="13">
+        <v>509</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="13">
+        <f>(E9/'1994-1999'!H5)*100</f>
+        <v>4.8972853998532653</v>
+      </c>
+      <c r="E9" s="13">
+        <v>534</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="13">
+        <f>(E10/'1994-1999'!H5)*100</f>
+        <v>5.30997798972854</v>
+      </c>
+      <c r="E10" s="13">
+        <v>579</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="13">
+        <f>(E11/'1994-1999'!H5)*100</f>
+        <v>5.154071900220103</v>
+      </c>
+      <c r="E11" s="13">
+        <v>562</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="13">
+        <f>(E12/'1994-1999'!H5)*100</f>
+        <v>4.3561995597945709</v>
+      </c>
+      <c r="E12" s="13">
+        <v>475</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13">
+        <f>(E13/'1994-1999'!H5)*100</f>
+        <v>5.2824651504035218</v>
+      </c>
+      <c r="E13" s="13">
+        <v>576</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="13">
+        <f>(E14/'1994-1999'!H5)*100</f>
+        <v>3.3565663976522377</v>
+      </c>
+      <c r="E14" s="13">
+        <v>366</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13">
+        <f>(E15/'1994-1999'!H5)*100</f>
+        <v>0.50440205429200291</v>
+      </c>
+      <c r="E15" s="13">
+        <v>55</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13">
+        <f>(E16/'1994-1999'!H5)*100</f>
+        <v>4.9156272927366098</v>
+      </c>
+      <c r="E16" s="13">
+        <v>536</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="13">
+        <f>(E17/'1994-1999'!H5)*100</f>
+        <v>4.5946441672780631</v>
+      </c>
+      <c r="E17" s="13">
+        <v>501</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="13">
+        <f>(E18/'1994-1999'!H5)*100</f>
+        <v>4.9156272927366098</v>
+      </c>
+      <c r="E18" s="13">
+        <v>536</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="13">
+        <f>(E19/'1994-1999'!H5)*100</f>
+        <v>5.218268525311812</v>
+      </c>
+      <c r="E19" s="13">
+        <v>569</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.31632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.21428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.31632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.21428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.40816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.62244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.21428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.19387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.19897959183674"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.21428571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.19387755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.55612244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.21428571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.19387755102041"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.55612244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="8.21428571428571"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.19387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="18.42578125"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.140625"/>
+    <col min="4" max="4" width="7.28515625"/>
+    <col min="5" max="5" width="4.7109375"/>
+    <col min="6" max="6" width="8.140625"/>
+    <col min="7" max="7" width="6.42578125"/>
+    <col min="8" max="8" width="5.5703125"/>
+    <col min="9" max="9" width="8.140625"/>
+    <col min="10" max="10" width="6.140625"/>
+    <col min="11" max="11" width="7.140625"/>
+    <col min="12" max="12" width="8.140625"/>
+    <col min="13" max="13" width="6.140625"/>
+    <col min="14" max="14" width="8.5703125"/>
+    <col min="15" max="15" width="8.140625"/>
+    <col min="16" max="16" width="6.140625"/>
+    <col min="17" max="17" width="8.5703125"/>
+    <col min="18" max="18" width="8.140625"/>
+    <col min="19" max="19" width="6.140625"/>
+    <col min="20" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="T4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="n">
-        <v>40.3054495259989</v>
-      </c>
-      <c r="C5" s="6" t="n">
+    </row>
+    <row r="5" spans="1:22" ht="15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5">
+        <v>40.305449525998903</v>
+      </c>
+      <c r="C5" s="6">
         <v>133</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>5.97752808989</v>
-      </c>
-      <c r="E5" s="7" t="n">
+      <c r="D5" s="5">
+        <v>5.9775280898899998</v>
+      </c>
+      <c r="E5" s="7">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>123</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>5.52808988764</v>
-      </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="5">
+        <v>5.5280898876400002</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="7">
         <v>121</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>5.43820224719</v>
-      </c>
-      <c r="K5" s="7" t="n">
+      <c r="J5" s="5">
+        <v>5.4382022471899996</v>
+      </c>
+      <c r="K5" s="7">
         <v>5751</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="7">
         <v>19</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>0.85393258427</v>
-      </c>
-      <c r="N5" s="5" t="n">
+      <c r="M5" s="5">
+        <v>0.85393258426999996</v>
+      </c>
+      <c r="N5" s="5">
         <v>123.042857142857</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="8">
         <v>125</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="5">
         <v>5.61797752809</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>152.788061551523</v>
-      </c>
-      <c r="R5" s="8" t="n">
+      <c r="Q5" s="5">
+        <v>152.78806155152299</v>
+      </c>
+      <c r="R5" s="8">
         <v>126</v>
       </c>
-      <c r="S5" s="5" t="n">
-        <v>5.66292134831</v>
-      </c>
-      <c r="T5" s="5" t="n">
+      <c r="S5" s="5">
+        <v>5.6629213483100003</v>
+      </c>
+      <c r="T5" s="5">
         <v>162.042857142857</v>
       </c>
-      <c r="U5" s="8" t="n">
+      <c r="U5" s="8">
         <v>133</v>
       </c>
-      <c r="V5" s="5" t="n">
-        <v>5.97752808989</v>
+      <c r="V5" s="5">
+        <v>5.9775280898899998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1322,232 +2674,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+    <row r="11" spans="1:1" ht="15">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+    <row r="15" spans="1:1" ht="15">
+      <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A19"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1555,119 +2782,112 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1" ht="15">
       <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
       <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
       <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
       <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:1" ht="15">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1675,119 +2895,112 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1" ht="15">
       <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
       <c r="A10" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
       <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
       <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1" ht="15">
       <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
       <c r="A16" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1795,119 +3008,112 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
       <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1" ht="15">
       <c r="A9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
       <c r="A10" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
       <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
       <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1" ht="15">
       <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
       <c r="A16" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1915,119 +3121,229 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15">
+      <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+    <row r="11" spans="1:1" ht="15">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
+      <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:1" ht="15">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/PredLig/src/Documentation/Execution of Astro-ph.xlsx
+++ b/PredLig/src/Documentation/Execution of Astro-ph.xlsx
@@ -596,38 +596,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.5030183727034119E-2"/>
-          <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.83796369203849519"/>
-          <c:h val="0.82798993875765525"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -685,7 +661,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -743,7 +719,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -801,7 +777,7 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -858,6 +834,470 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$12,'Resultados - 1994-1999'!$F$12,'Resultados - 1994-1999'!$H$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.3561995597945709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$13,'Resultados - 1994-1999'!$F$13,'Resultados - 1994-1999'!$H$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2824651504035218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$14,'Resultados - 1994-1999'!$F$14,'Resultados - 1994-1999'!$H$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.3565663976522377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$15,'Resultados - 1994-1999'!$F$15,'Resultados - 1994-1999'!$H$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.50440205429200291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$16,'Resultados - 1994-1999'!$F$16,'Resultados - 1994-1999'!$H$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9156272927366098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$17,'Resultados - 1994-1999'!$F$17,'Resultados - 1994-1999'!$H$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5946441672780631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DTSv2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$18,'Resultados - 1994-1999'!$F$18,'Resultados - 1994-1999'!$H$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9156272927366098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Resultados - 1994-1999'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DJC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>('Resultados - 1994-1999'!$D$6:$D$7,'Resultados - 1994-1999'!$F$6:$F$7,'Resultados - 1994-1999'!$H$6:$H$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>%</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ASTRO-PH</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>COND-MAT</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>MAS</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Resultados - 1994-1999'!$D$19,'Resultados - 1994-1999'!$F$19,'Resultados - 1994-1999'!$H$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.218268525311812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -867,22 +1307,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="530650624"/>
-        <c:axId val="530595840"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="533079552"/>
+        <c:axId val="546507584"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="530650624"/>
+        <c:axId val="533079552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530595840"/>
+        <c:crossAx val="546507584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -890,18 +1328,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530595840"/>
+        <c:axId val="546507584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530650624"/>
+        <c:crossAx val="533079552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,6 +1386,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1473,12 +1912,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="532640768"/>
-        <c:axId val="530598144"/>
+        <c:axId val="547385344"/>
+        <c:axId val="544244864"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="532640768"/>
+        <c:axId val="547385344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1934,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="530598144"/>
+        <c:crossAx val="544244864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1503,7 +1942,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530598144"/>
+        <c:axId val="544244864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1968,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="532640768"/>
+        <c:crossAx val="547385344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1544,6 +1983,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1576,20 +2016,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2025,7 +2465,7 @@
   <dimension ref="C6:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/PredLig/src/Documentation/Execution of Astro-ph.xlsx
+++ b/PredLig/src/Documentation/Execution of Astro-ph.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="988"/>
   </bookViews>
   <sheets>
     <sheet name="1994-1999" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>DataSet</t>
   </si>
@@ -271,7 +276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,6 +300,20 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -369,51 +388,65 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,6 +482,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,9 +510,23 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="16">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -584,7 +637,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -654,7 +707,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.6680117388114448</c:v>
+                  <c:v>4.668011738811445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.364949130292091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,7 +768,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.8972853998532653</c:v>
+                  <c:v>4.897285399853265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.511650804069576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,6 +831,9 @@
                 <c:pt idx="0">
                   <c:v>5.30997798972854</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.463406629471612</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -830,6 +892,9 @@
                 <c:pt idx="0">
                   <c:v>5.154071900220103</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.413193304890056</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -886,7 +951,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3561995597945709</c:v>
+                  <c:v>4.356199559794571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.855267476206104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.719416970327955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +1015,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.2824651504035218</c:v>
+                  <c:v>5.282465150403521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.642927469642271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.979698073919834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,7 +1079,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.3565663976522377</c:v>
+                  <c:v>3.356566397652238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.673777486051854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.322748568453931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,7 +1143,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.50440205429200291</c:v>
+                  <c:v>0.504402054292003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.426649163111257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.741801145236856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1207,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9156272927366098</c:v>
+                  <c:v>4.91562729273661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.758779127010173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.431025507548152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,7 +1271,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.5946441672780631</c:v>
+                  <c:v>4.594644167278063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.102395799146702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.634912372028458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,7 +1335,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9156272927366098</c:v>
+                  <c:v>4.91562729273661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.839842468001313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.595870206489676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1399,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.218268525311812</c:v>
+                  <c:v>5.218268525311811</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.08500164095832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.50043380183932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,11 +1420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="533079552"/>
-        <c:axId val="546507584"/>
+        <c:axId val="-2120103016"/>
+        <c:axId val="-2117710040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="533079552"/>
+        <c:axId val="-2120103016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546507584"/>
+        <c:crossAx val="-2117710040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546507584"/>
+        <c:axId val="-2117710040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533079552"/>
+        <c:crossAx val="-2120103016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1355,7 +1468,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.787401575" l="0.511811024" r="0.511811024" t="0.787401575" header="0.31496062" footer="0.31496062"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1364,7 +1477,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1386,7 +1499,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1474,7 +1586,7 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,7 +1654,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,7 +1722,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,7 +1790,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1746,7 +1858,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,7 +1926,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>126</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1994,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,12 +2024,12 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="547385344"/>
-        <c:axId val="544244864"/>
+        <c:axId val="-2143947720"/>
+        <c:axId val="-2143243080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="547385344"/>
+        <c:axId val="-2143947720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +2046,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="544244864"/>
+        <c:crossAx val="-2143243080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +2054,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544244864"/>
+        <c:axId val="-2143243080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +2080,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="547385344"/>
+        <c:crossAx val="-2143947720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1983,7 +2095,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2006,7 +2117,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.787401575" l="0.511811024" r="0.511811024" t="0.787401575" header="0.31496062" footer="0.31496062"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2017,15 +2128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2369,40 +2480,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H5"/>
+  <dimension ref="B3:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="18.7109375"/>
-    <col min="3" max="4" width="11.5703125"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875"/>
-    <col min="9" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="36.75" customHeight="1">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="2:8" ht="22.7" customHeight="1">
-      <c r="B4" s="14"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="2:8" ht="22.75" customHeight="1">
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2422,8 +2532,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19.7" customHeight="1">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:8" ht="22.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
@@ -2445,6 +2555,53 @@
         <v>10904</v>
       </c>
     </row>
+    <row r="6" spans="2:8" ht="19.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6698</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7358</v>
+      </c>
+      <c r="E6" s="2">
+        <v>27053701</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21698</v>
+      </c>
+      <c r="G6" s="2">
+        <v>19845</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickTop="1" thickBot="1">
+      <c r="B7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>118188</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17704</v>
+      </c>
+      <c r="E7" s="2">
+        <v>156669598</v>
+      </c>
+      <c r="F7" s="2">
+        <v>270084</v>
+      </c>
+      <c r="G7" s="2">
+        <v>24076</v>
+      </c>
+      <c r="H7" s="2">
+        <v>23052</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="13" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:B4"/>
@@ -2452,11 +2609,16 @@
     <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2464,35 +2626,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:9">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="19"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
@@ -2523,8 +2685,13 @@
       <c r="E8" s="13">
         <v>509</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="13">
+        <f>(G8/'1994-1999'!H6)*100</f>
+        <v>4.3649491302920911</v>
+      </c>
+      <c r="G8" s="13">
+        <v>133</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
@@ -2539,8 +2706,13 @@
       <c r="E9" s="13">
         <v>534</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="13">
+        <f>(G9/'1994-1999'!H6)*100</f>
+        <v>3.5116508040695762</v>
+      </c>
+      <c r="G9" s="13">
+        <v>107</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
@@ -2555,8 +2727,13 @@
       <c r="E10" s="13">
         <v>579</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="13">
+        <f>(G10/'1994-1999'!H6)*100</f>
+        <v>4.4634066294716117</v>
+      </c>
+      <c r="G10" s="13">
+        <v>136</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
@@ -2571,8 +2748,13 @@
       <c r="E11" s="13">
         <v>562</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="13">
+        <f>(G11/'1994-1999'!H6)*100</f>
+        <v>3.413193304890056</v>
+      </c>
+      <c r="G11" s="13">
+        <v>104</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
@@ -2587,10 +2769,20 @@
       <c r="E12" s="13">
         <v>475</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="F12" s="13">
+        <f>(G12/'1994-1999'!H6)*100</f>
+        <v>2.8552674762061043</v>
+      </c>
+      <c r="G12">
+        <v>87</v>
+      </c>
+      <c r="H12" s="13">
+        <f>(I12/'1994-1999'!H7)*100</f>
+        <v>8.7194169703279556</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="13" t="s">
@@ -2603,10 +2795,20 @@
       <c r="E13" s="13">
         <v>576</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="F13" s="13">
+        <f>(G13/'1994-1999'!H6)*100</f>
+        <v>3.6429274696422711</v>
+      </c>
+      <c r="G13" s="13">
+        <v>111</v>
+      </c>
+      <c r="H13" s="13">
+        <f>(I13/'1994-1999'!H7)*100</f>
+        <v>8.9796980739198347</v>
+      </c>
+      <c r="I13" s="13">
+        <v>2070</v>
+      </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="13" t="s">
@@ -2619,10 +2821,20 @@
       <c r="E14" s="13">
         <v>366</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="F14" s="13">
+        <f>(G14/'1994-1999'!H6)*100</f>
+        <v>1.6737774860518542</v>
+      </c>
+      <c r="G14" s="13">
+        <v>51</v>
+      </c>
+      <c r="H14" s="13">
+        <f>(I14/'1994-1999'!H7)*100</f>
+        <v>5.3227485684539309</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1227</v>
+      </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="13" t="s">
@@ -2635,10 +2847,20 @@
       <c r="E15" s="13">
         <v>55</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="F15" s="13">
+        <f>(G15/'1994-1999'!H6)*100</f>
+        <v>0.426649163111257</v>
+      </c>
+      <c r="G15" s="13">
+        <v>13</v>
+      </c>
+      <c r="H15" s="13">
+        <f>(I15/'1994-1999'!H7)*100</f>
+        <v>0.74180114523685581</v>
+      </c>
+      <c r="I15" s="13">
+        <v>171</v>
+      </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="13" t="s">
@@ -2651,10 +2873,20 @@
       <c r="E16" s="13">
         <v>536</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="F16" s="13">
+        <f>(G16/'1994-1999'!H6)*100</f>
+        <v>4.7587791270101736</v>
+      </c>
+      <c r="G16" s="13">
+        <v>145</v>
+      </c>
+      <c r="H16" s="13">
+        <f>(I16/'1994-1999'!H7)*100</f>
+        <v>7.4310255075481519</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1713</v>
+      </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="13" t="s">
@@ -2667,10 +2899,20 @@
       <c r="E17" s="13">
         <v>501</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="F17" s="13">
+        <f>(G17/'1994-1999'!H6)*100</f>
+        <v>4.1023957991467022</v>
+      </c>
+      <c r="G17" s="13">
+        <v>125</v>
+      </c>
+      <c r="H17" s="13">
+        <f>(I17/'1994-1999'!H7)*100</f>
+        <v>7.6349123720284577</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1760</v>
+      </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="13" t="s">
@@ -2683,10 +2925,20 @@
       <c r="E18" s="13">
         <v>536</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="F18" s="13">
+        <f>(G18/'1994-1999'!H6)*100</f>
+        <v>3.8398424680013128</v>
+      </c>
+      <c r="G18" s="13">
+        <v>117</v>
+      </c>
+      <c r="H18" s="13">
+        <f>(I18/'1994-1999'!H7)*100</f>
+        <v>7.5958702064896757</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1751</v>
+      </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="13" t="s">
@@ -2699,10 +2951,20 @@
       <c r="E19" s="13">
         <v>569</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="F19" s="13">
+        <f>(G19/'1994-1999'!H6)*100</f>
+        <v>3.0850016409583199</v>
+      </c>
+      <c r="G19" s="13">
+        <v>94</v>
+      </c>
+      <c r="H19" s="13">
+        <f>(I19/'1994-1999'!H7)*100</f>
+        <v>7.5004338018393195</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1729</v>
+      </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="13"/>
@@ -2883,8 +3145,13 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2892,76 +3159,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.42578125"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.140625"/>
-    <col min="4" max="4" width="7.28515625"/>
-    <col min="5" max="5" width="4.7109375"/>
-    <col min="6" max="6" width="8.140625"/>
-    <col min="7" max="7" width="6.42578125"/>
-    <col min="8" max="8" width="5.5703125"/>
-    <col min="9" max="9" width="8.140625"/>
-    <col min="10" max="10" width="6.140625"/>
-    <col min="11" max="11" width="7.140625"/>
-    <col min="12" max="12" width="8.140625"/>
-    <col min="13" max="13" width="6.140625"/>
-    <col min="14" max="14" width="8.5703125"/>
-    <col min="15" max="15" width="8.140625"/>
-    <col min="16" max="16" width="6.140625"/>
-    <col min="17" max="17" width="8.5703125"/>
-    <col min="18" max="18" width="8.140625"/>
-    <col min="19" max="19" width="6.140625"/>
-    <col min="20" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14" t="s">
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3029,7 +3277,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5">
         <v>40.305449525998903</v>
       </c>
@@ -3111,6 +3359,11 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3118,14 +3371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
@@ -3218,6 +3468,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3225,12 +3480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
@@ -3331,6 +3583,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3338,12 +3595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
@@ -3444,6 +3698,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3451,12 +3710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
@@ -3557,6 +3813,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3564,14 +3825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
@@ -3672,6 +3930,11 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3679,14 +3942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1025" width="11.5703125"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="9" t="s">
@@ -3787,5 +4047,10 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>